--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.2/avg_0.003_scores.xlsx
@@ -118,21 +118,21 @@
     <t>better</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -151,10 +151,10 @@
     <t>hope</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>credit</t>
   </si>
   <si>
     <t>care</t>
@@ -1348,13 +1348,13 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>0.762114537444934</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L25">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="M25">
-        <v>185</v>
+        <v>72</v>
       </c>
       <c r="N25">
         <v>0.9399999999999999</v>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1374,25 +1374,25 @@
         <v>35</v>
       </c>
       <c r="K26">
-        <v>0.7555555555555555</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L26">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1400,25 +1400,25 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.7450980392156863</v>
+        <v>0.73</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1426,13 +1426,13 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.73</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L28">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="M28">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="N28">
         <v>0.92</v>
@@ -1444,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1452,25 +1452,25 @@
         <v>38</v>
       </c>
       <c r="K29">
-        <v>0.7272727272727273</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="M29">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="N29">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1634,25 +1634,25 @@
         <v>45</v>
       </c>
       <c r="K36">
-        <v>0.6276923076923077</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L36">
-        <v>204</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1660,25 +1660,25 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>0.6129032258064516</v>
+        <v>0.6</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="N37">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="10:17">
